--- a/excel/import_data.xlsx
+++ b/excel/import_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="360" yWindow="120" windowWidth="14355" windowHeight="4680"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="4680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,585 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Windows User</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Masukan Posisi Pekerjaan nya contohnya seperti di baris 2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Masukan Jumlah orang yang di cari atau diminta</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Masukan Pengalaman yang di butuhkan</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Jika sertifikat ini di butuhkan maka isi angka 1 jika tidak 0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Jika sertifikat ini di butuhkan maka isi angka 1 jika tidak 0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Jika sertifikat ini di butuhkan maka isi angka 1 jika tidak 0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Jika sertifikat ini di butuhkan maka isi angka 1 jika tidak 0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Jika sertifikat ini di butuhkan maka isi angka 1 jika tidak 0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Jika sertifikat ini di butuhkan maka isi angka 1 jika tidak 0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Jika sertifikat ini di butuhkan maka isi angka 1 jika tidak 0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Jika sertifikat ini di butuhkan maka isi angka 1 jika tidak 0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Jika sertifikat ini di butuhkan maka isi angka 1 jika tidak 0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Jika sertifikat ini di butuhkan maka isi angka 1 jika tidak 0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Jika sertifikat ini di butuhkan maka isi angka 1 jika tidak 0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Jika sertifikat ini di butuhkan maka isi angka 1 jika tidak 0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+masukan jenis kemampuan lain yang di butuhkan</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Masukan lokasi site</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Masukan Point Of Hire</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Masuk kan masa kerja</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Masukan schedule 4_4 atau 5_2 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Masukan rate gaji dan benefit</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Tujuannya</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Ke site tanggal berapa</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+masa tugasnya tanggal berapa
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>POSITION</t>
   </si>
@@ -35,9 +612,6 @@
     <t>POH</t>
   </si>
   <si>
-    <t>DURTION</t>
-  </si>
-  <si>
     <t>Schedule</t>
   </si>
   <si>
@@ -101,15 +675,6 @@
     <t>DOKTER</t>
   </si>
   <si>
-    <t>PARAMEDIC</t>
-  </si>
-  <si>
-    <t>DRIVER AMBULANCE</t>
-  </si>
-  <si>
-    <t>Kalo bisa sih yang bagus</t>
-  </si>
-  <si>
     <t>BOJONEGORO</t>
   </si>
   <si>
@@ -122,10 +687,13 @@
     <t>750 250</t>
   </si>
   <si>
-    <t>751 250</t>
-  </si>
-  <si>
     <t>Baru</t>
+  </si>
+  <si>
+    <t>DURATION</t>
+  </si>
+  <si>
+    <t>Kalo bisa pinter masak</t>
   </si>
 </sst>
 </file>
@@ -133,9 +701,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,6 +718,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -179,7 +760,7 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,11 +1064,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,46 +1107,46 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>2</v>
@@ -574,27 +1155,27 @@
         <v>3</v>
       </c>
       <c r="S1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="V1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -639,25 +1220,25 @@
         <v>1</v>
       </c>
       <c r="P2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U2" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="R2" t="s">
-        <v>7</v>
-      </c>
-      <c r="S2" t="s">
-        <v>30</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="W2" s="4">
         <v>43403</v>
@@ -666,157 +1247,22 @@
         <v>43404</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>29</v>
-      </c>
-      <c r="R3" t="s">
-        <v>7</v>
-      </c>
-      <c r="S3" t="s">
-        <v>30</v>
-      </c>
-      <c r="T3" t="s">
-        <v>31</v>
-      </c>
-      <c r="U3" t="s">
-        <v>32</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W3" s="4">
-        <v>43403</v>
-      </c>
-      <c r="X3" s="4">
-        <v>43404</v>
-      </c>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="P3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
     </row>
-    <row r="4" spans="1:24" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R4" t="s">
-        <v>7</v>
-      </c>
-      <c r="S4" t="s">
-        <v>30</v>
-      </c>
-      <c r="T4" t="s">
-        <v>31</v>
-      </c>
-      <c r="U4" t="s">
-        <v>33</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W4" s="4">
-        <v>43403</v>
-      </c>
-      <c r="X4" s="4">
-        <v>43404</v>
-      </c>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="P4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
